--- a/Industry/201612-201908/HKD/MILLION/Analysis_137_M8 - Footwear (SITC 851 in 5 digits)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_137_M8 - Footwear (SITC 851 in 5 digits)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="384" yWindow="384"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -27632,6 +27633,872 @@
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="9" min="8" width="9"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="n">
+        <v>24340.724</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22591.052</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-7.188</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14359.531</v>
+      </c>
+      <c r="F2" t="n">
+        <v>22114.642</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-2.109</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15626.85</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.826000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13569.083</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11565.559</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-14.765</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6706.481</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10005.928</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-13.485</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6623.711</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.234</v>
+      </c>
+      <c r="J3" t="n">
+        <v>55.746</v>
+      </c>
+      <c r="K3" t="n">
+        <v>51.195</v>
+      </c>
+      <c r="L3" t="n">
+        <v>46.704</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45.246</v>
+      </c>
+      <c r="N3" t="n">
+        <v>42.387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2900.068</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3298.499</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.739</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2358.458</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3594.863</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.984999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2266.333</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-3.906</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.914</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.601</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16.424</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16.256</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14.503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1622.518</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1587.823</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-2.138</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1140.33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1903.276</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.867</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1713.523</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50.266</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.666</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.941</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.606</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1734.436</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1790.139</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.212</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1322.455</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2239.903</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25.125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1655.94</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25.217</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.126</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.924</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10.129</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3059.712</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2682.682</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-12.322</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1427.406</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2131.415</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-20.549</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1352.803</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-5.226</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.875</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.638</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" t="n">
+        <v>164.51</v>
+      </c>
+      <c r="C8" t="n">
+        <v>297.493</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80.836</v>
+      </c>
+      <c r="E8" t="n">
+        <v>341.135</v>
+      </c>
+      <c r="F8" t="n">
+        <v>562.029</v>
+      </c>
+      <c r="G8" t="n">
+        <v>88.922</v>
+      </c>
+      <c r="H8" t="n">
+        <v>592.967</v>
+      </c>
+      <c r="I8" t="n">
+        <v>73.822</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" t="n">
+        <v>191.047</v>
+      </c>
+      <c r="C9" t="n">
+        <v>162.489</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-14.948</v>
+      </c>
+      <c r="E9" t="n">
+        <v>319.538</v>
+      </c>
+      <c r="F9" t="n">
+        <v>541.726</v>
+      </c>
+      <c r="G9" t="n">
+        <v>233.392</v>
+      </c>
+      <c r="H9" t="n">
+        <v>565.577</v>
+      </c>
+      <c r="I9" t="n">
+        <v>76.998</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" t="n">
+        <v>323.916</v>
+      </c>
+      <c r="C10" t="n">
+        <v>444.962</v>
+      </c>
+      <c r="D10" t="n">
+        <v>37.37</v>
+      </c>
+      <c r="E10" t="n">
+        <v>197.178</v>
+      </c>
+      <c r="F10" t="n">
+        <v>327.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-26.308</v>
+      </c>
+      <c r="H10" t="n">
+        <v>271.532</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37.709</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.331</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.373</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.483</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" t="n">
+        <v>216.358</v>
+      </c>
+      <c r="C11" t="n">
+        <v>256.191</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18.411</v>
+      </c>
+      <c r="E11" t="n">
+        <v>195.432</v>
+      </c>
+      <c r="F11" t="n">
+        <v>302.755</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18.175</v>
+      </c>
+      <c r="H11" t="n">
+        <v>159.45</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-18.412</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.369</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" t="n">
+        <v>135.277</v>
+      </c>
+      <c r="C12" t="n">
+        <v>123.828</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-8.462999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100.429</v>
+      </c>
+      <c r="F12" t="n">
+        <v>143.876</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16.191</v>
+      </c>
+      <c r="H12" t="n">
+        <v>116.282</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15.786</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" t="n">
+        <v>130.876</v>
+      </c>
+      <c r="C13" t="n">
+        <v>125.412</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-4.175</v>
+      </c>
+      <c r="E13" t="n">
+        <v>88.559</v>
+      </c>
+      <c r="F13" t="n">
+        <v>135.022</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.662</v>
+      </c>
+      <c r="H13" t="n">
+        <v>95.63</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.984</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" t="n">
+        <v>67.846</v>
+      </c>
+      <c r="C14" t="n">
+        <v>54.849</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-19.157</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61.029</v>
+      </c>
+      <c r="F14" t="n">
+        <v>77.224</v>
+      </c>
+      <c r="G14" t="n">
+        <v>40.795</v>
+      </c>
+      <c r="H14" t="n">
+        <v>85.49299999999999</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40.085</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" t="n">
+        <v>167.777</v>
+      </c>
+      <c r="C15" t="n">
+        <v>191.456</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.113</v>
+      </c>
+      <c r="E15" t="n">
+        <v>93.172</v>
+      </c>
+      <c r="F15" t="n">
+        <v>126.741</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-33.801</v>
+      </c>
+      <c r="H15" t="n">
+        <v>74.422</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-20.124</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.907</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.432</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.704</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.796</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.194</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-22.783</v>
+      </c>
+      <c r="H16" t="n">
+        <v>51.111</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1246.592</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-88.72499999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-36.435</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1055.467</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-68.453</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-67.46899999999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I18" t="n">
+        <v>159.773</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" t="n">
+        <v>48.359</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-93.434</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.776</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17.407</v>
+      </c>
+      <c r="G19" t="n">
+        <v>448.225</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-86.86499999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
